--- a/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
@@ -451,687 +451,925 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9602</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7251</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>009847</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>圆信永丰研究精选混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>96.11</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.54</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4576</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002932</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>009848</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>圆信永丰研究精选混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>96.11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>4.54</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000824</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>94.56</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>3.90</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000578</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鑫元恒鑫收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002745</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>北信瑞丰丰利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000825</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519097</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新华中小市值优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002933</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>515880</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰中证全指通信设备ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009697</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000579</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鑫元恒鑫收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009698</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002745</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>北信瑞丰丰利混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>39.23</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001718</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信物流产业股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002932</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002933</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005117</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005118</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005933</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005934</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005949</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鑫元行业轮动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005950</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鑫元行业轮动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008518</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>弘毅远方经济新动力混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000578</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鑫元恒鑫收益增强债券A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>20.03</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>000579</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鑫元恒鑫收益增强债券C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>20.03</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009707</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009708</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1141,7 +1379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,15 +1400,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1182,25 +1430,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501051</t>
+          <t>006751</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>圆信永丰汇利混合（LOF）</t>
+          <t>富国互联科技股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>43.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1461</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004693</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隽灵活配置混合A</t>
+          <t>国泰中证全指通信设备ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>31.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007042</t>
+          <t>000986</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隽灵活配置混合C</t>
+          <t>太平灵活配置混合型发起式</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>19.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0891</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005933</t>
+          <t>001268</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
+          <t>富国国家安全主题混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4671</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005934</t>
+          <t>000824</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
+          <t>圆信永丰双红利灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009847</t>
+          <t>501080</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>圆信永丰研究精选混合A</t>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>17.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3657</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1350,25 +1658,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009848</t>
+          <t>009847</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>圆信永丰研究精选混合C</t>
+          <t>圆信永丰研究精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.00</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.20</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006081</t>
+          <t>519026</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海富通电子信息传媒产业股票A</t>
+          <t>海富通中小盘混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006080</t>
+          <t>004183</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海富通电子信息传媒产业股票C</t>
+          <t>富国产业升级混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1434,25 +1772,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000824</t>
+          <t>501051</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>圆信永丰双红利灵活配置混合A</t>
+          <t>圆信永丰汇利混合（LOF）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000825</t>
+          <t>004693</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>圆信永丰双红利灵活配置混合C</t>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1490,25 +1848,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006751</t>
+          <t>004959</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国互联科技股票A</t>
+          <t>圆信永丰优悦生活混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.85</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1518,25 +1886,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011126</t>
+          <t>001650</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国互联科技股票C</t>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>87.85</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>48.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000986</t>
+          <t>009537</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>太平灵活配置混合型发起式</t>
+          <t>太平行业优选股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>501080</t>
+          <t>001097</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+          <t>华泰柏瑞积极优选股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>73.90</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1602,26 +2000,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001097</t>
+          <t>005933</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞积极优选股票</t>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001268</t>
+          <t>001601</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富国国家安全主题混合</t>
+          <t>鑫元鑫新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.74</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011149</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>创金合信ESG责任投资股票A</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011150</t>
+          <t>011126</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>创金合信ESG责任投资股票C</t>
+          <t>富国互联科技股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>006081</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国泰中证全指通信设备ETF</t>
+          <t>海富通电子信息传媒产业股票A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>99.58</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001601</t>
+          <t>009538</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鑫元鑫新收益灵活配置混合A</t>
+          <t>太平行业优选股票C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>73.69</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001602</t>
+          <t>002233</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鑫元鑫新收益灵活配置混合C</t>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>73.69</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>48.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>519026</t>
+          <t>006080</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海富通中小盘混合</t>
+          <t>海富通电子信息传媒产业股票C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001650</t>
+          <t>011149</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>工银瑞信丰收回报灵活配置混合A</t>
+          <t>创金合信ESG责任投资股票A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>48.02</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002233</t>
+          <t>009848</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>工银瑞信丰收回报灵活配置混合C</t>
+          <t>圆信永丰研究精选混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>48.02</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>000825</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>圆信永丰双红利灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>004183</t>
+          <t>011150</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>富国产业升级混合</t>
+          <t>创金合信ESG责任投资股票C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>004959</t>
+          <t>005934</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>圆信永丰优悦生活混合</t>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>79.70</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>7</v>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1966,26 +2494,30 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009537</t>
+          <t>007042</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>太平行业优选股票A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1994,26 +2526,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009538</t>
+          <t>001602</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太平行业优选股票C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2502,7 +2503,6 @@
           <t>新疆前海联合泳隽灵活配置混合C</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>88.55</t>
@@ -2534,7 +2534,6 @@
           <t>鑫元鑫新收益灵活配置混合C</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>73.69</t>
@@ -2550,6 +2549,1010 @@
       </c>
       <c r="H31" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3556</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0725</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0219</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8736</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7343</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4171</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3862</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3558,4 +3559,2034 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4871</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2893</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2826</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8247</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7967</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5723</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5504</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5498</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4879</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4682</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4122</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3410</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3241</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5589,4 +5590,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5598,7 +5599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5609,17 +5610,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5629,14 +5650,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.94</v>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>119.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5487</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5645,14 +5688,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.1</v>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1805</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5661,14 +5726,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.38</v>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0551</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5677,13 +5764,1709 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>109.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7102</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3558</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7460</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6836</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6772</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6312</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5870</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4178</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2860</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7365,7 +7366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7376,17 +7377,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7396,14 +7417,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.95</v>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7412,14 +7455,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.94</v>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0495</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7428,14 +7493,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.1</v>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9801</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -7444,14 +7531,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.38</v>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8290</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -7460,13 +7569,2257 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3644</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2532</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1913</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9293</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8772</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8562</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8096</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6317</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6169</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5059</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4562</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4352</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3667</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>53.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9702,7 +9703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9713,17 +9714,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9733,14 +9754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.01</v>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -9749,14 +9792,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.95</v>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -9765,14 +9830,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>52</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.94</v>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0883</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -9781,14 +9868,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.1</v>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8129</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -9797,14 +9906,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.38</v>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0347</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -9813,13 +9944,1399 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9851</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8068</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5218</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5072</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4859</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4777</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3585</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>17.28</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>18.95</v>
+        <v>26.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>16.94</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>7.1</v>
+        <v>16.94</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>7.38</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.34</v>
       </c>
     </row>
@@ -600,6 +617,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9532</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3547</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013869</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013870</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2099,7 +3310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4435,7 +5646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6201,7 +7412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8231,7 +9442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9235,7 +10446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10417,7 +11628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603236-移远通信.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>4.16</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>17.28</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>26.01</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>18.95</v>
+        <v>26.01</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>16.94</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>7.1</v>
+        <v>16.94</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>7.38</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,958 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9602</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7251</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4576</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002932</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000578</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鑫元恒鑫收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002745</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>北信瑞丰丰利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002933</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000579</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鑫元恒鑫收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1562,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5140</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013869</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013870</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015638</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1810,7 +3647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3310,7 +5147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5646,7 +7483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7412,7 +9249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9442,7 +11279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10446,7 +12283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11626,932 +13463,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证全指通信设备ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9602</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009697</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7251</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009847</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4576</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002932</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2906</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000824</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2870</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009698</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1785</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009707</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0911</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005117</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0707</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008518</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>弘毅远方经济新动力混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0637</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005933</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0560</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001718</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信物流产业股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0501</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519097</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>新华中小市值优选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0429</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009708</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0335</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005949</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鑫元行业轮动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009848</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>圆信永丰研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>96.11</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000825</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000578</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鑫元恒鑫收益增强债券A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>20.03</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005934</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005118</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.56</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002745</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>北信瑞丰丰利混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>39.23</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002933</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000579</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鑫元恒鑫收益增强债券C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>20.03</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005950</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鑫元行业轮动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>